--- a/output-data.xlsx
+++ b/output-data.xlsx
@@ -698,7 +698,7 @@
         <v>700</v>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="9">

--- a/output-data.xlsx
+++ b/output-data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="input-data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="tsukamoto" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="mamdani" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sugeno" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -927,4 +928,185 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Smoke</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>193</v>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>161.6169014084507</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B3" t="n">
+        <v>300</v>
+      </c>
+      <c r="C3" t="n">
+        <v>900</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B4" t="n">
+        <v>150</v>
+      </c>
+      <c r="C4" t="n">
+        <v>320</v>
+      </c>
+      <c r="D4" t="n">
+        <v>75.83333333333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65</v>
+      </c>
+      <c r="B5" t="n">
+        <v>450</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B6" t="n">
+        <v>700</v>
+      </c>
+      <c r="C6" t="n">
+        <v>650</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>950</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>40</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>700</v>
+      </c>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65</v>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D9" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>75</v>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35</v>
+      </c>
+      <c r="B11" t="n">
+        <v>750</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="n">
+        <v>147.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>